--- a/docss/trend/iceland/E_huntington.xlsx
+++ b/docss/trend/iceland/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\iceland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\iceland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1556,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,10 +1597,10 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>0.41173443198204041</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="C3" s="7">
-        <v>0.85178875923156738</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>0.43255713582038879</v>
+        <v>0.433</v>
       </c>
       <c r="C5" s="7">
-        <v>0.84901660680770874</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -1666,28 +1666,28 @@
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.43252596259117126</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8">
+        <v>0.433</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>0.84853625297546387</v>
+      <c r="D8">
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.35997119545936584</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9">
+        <v>0.36</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="7">
-        <v>0.74608308076858521</v>
+      <c r="D9">
+        <v>0.746</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,36 +1695,6 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
